--- a/pred_ohlcv/54_21/2020-01-15 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BSV ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>3101.24954466</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3864.43404466</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4123.84132672</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3827.99492672</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5730.163950420001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5692.339405580001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5751.522305580001</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5772.087705580001</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5689.125305580001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5690.115105580001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5641.626805580001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>5408.709704960001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5091.68350496</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5392.41810496</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5454.17140496</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5442.971404960001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5470.441206420001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5424.271006420001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5368.063606420001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5386.066906420001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>5374.274606420001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5455.184106420001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5048.72987857</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5025.33687857</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>5046.650378570001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5046.650378570001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5059.266881180001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5059.266881180001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5053.866881180002</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5032.839381180002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4992.739381180001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4790.758781180001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4828.150381180001</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4828.986081180001</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4746.787081180001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4746.787081180001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4786.576781180001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4778.923081180002</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4779.109581180001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4787.549781180001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4790.840581180001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>4831.040581180001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5046.259781180001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>5084.834881180001</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5141.727081180001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>5169.595781180001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5206.164881180001</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5181.01742289</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5158.029422889999</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5118.11990102</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5115.83090102</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5102.02760102</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5096.318701020001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5089.388101020001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5089.402301020001</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5161.742901020001</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5153.542901020001</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5165.102495500001</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5168.802495500001</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5169.894795500001</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>5159.919695500002</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>5159.912595500002</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>5159.912595500002</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5159.912595500002</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>5159.941694500002</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>5126.906394500003</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5127.804294500002</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>5131.400294500002</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>5136.866094500002</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5136.866094500002</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5136.866094500002</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5136.866094500002</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5136.866094500002</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>5123.894094500002</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>5123.914094500003</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5165.747094500002</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5288.256093880001</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5288.256093880001</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5345.082993880001</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>5687.507399069998</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>15078.46918959</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>16206.92094449</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>16206.92094449</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>16660.49744449</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>17793.89651763</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>15729.3472194</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>14703.10929136</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>13598.07669136</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>13126.81169136</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>13381.40339136001</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>13879.90438959</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>14525.86188537</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>13487.92827428</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>14138.37045139</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>13998.02025139</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13829.07105139</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>13553.41005139</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>14817.09527912001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>13932.53172935</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>14148.83837905</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13817.36559516</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>13561.38909401</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>13120.56722048</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>13809.54282048</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>14137.24252048</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>13961.01492048</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>13747.94022048</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>13359.02382048</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>13704.66892048</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>13854.16782048</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>14374.72522048</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>14840.26017161</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14412.37704201</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14490.02284109</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>14429.73224639</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>14585.11842675</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>14432.68707946</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>14213.99527946</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>14725.78864364</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>14429.71674364</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>14312.88764364</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>14545.68994364</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>14545.68994364</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>14268.7750832</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>13967.7332832</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>14129.7335832</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>15770.82820229</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>15603.18730229</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>15804.73864897</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>15789.30344897</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>16105.18905568</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>16070.78345568</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>18258.27210965</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>18637.71287149</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>18161.96443999</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>18136.05013998999</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>18440.84303999</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>18575.73213999</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>18559.79063998999</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>18618.35443921999</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>18971.57343999</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>19527.24366329</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>19736.82736328999</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>19553.41786328999</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>19659.04406328999</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>20401.85736516999</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>21511.86713620999</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>21220.76621437999</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>20936.01732821999</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>20936.01732821999</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>20998.03984038999</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>21796.03494686999</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>22188.17114231999</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>21788.10894231999</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>21475.90504231999</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>21475.90504231999</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>21231.75724231999</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>21503.47371398999</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>21576.16951398999</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>21481.17872276999</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>21396.56822276999</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>21325.41048870999</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>20930.93848870999</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>20930.93848870999</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>20802.85574142999</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>20659.44064142999</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>20855.63694142999</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>20946.41994142999</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>20955.92654142999</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>21030.56894142999</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>21030.56894142999</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>21184.31603313999</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21311.84679299999</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>21379.73319299999</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>21379.73319299999</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>21472.12139299999</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>21540.47609211999</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>21540.47609211999</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>21491.82269211999</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>21453.42748228999</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>21453.42748228999</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>21383.61188228999</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>21468.46758228999</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>21468.46758228999</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>21361.69586918999</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>21368.69217111999</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>21749.18853928999</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>21951.81653928999</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>21870.15363928999</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>22112.56883928999</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>21994.01046000999</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>21908.55066000999</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>21770.40306000999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>21748.61825979999</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>21857.84465979999</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>21808.16672429999</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>21895.21121208999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>21995.04231208999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>21918.98521208999</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>22116.77792334999</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>22155.36822398999</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>22311.49872126</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>22527.22221209</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>22178.74779073</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>22125.26199073</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>22186.16052161</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>22285.83017236</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>22285.83017236</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>22068.1492715</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>21905.8460715</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>21664.68227322</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>21725.62697041</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>21796.72555003</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>21929.49529898</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>21977.37996726</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>21977.37996726</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>21698.10922386</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>21883.16674643</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>21959.5004982</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>22107.95390127999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>22107.95390127999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>22261.61706718</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>22116.66431802</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>22190.55471802</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>22190.55471802</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>22306.17531802</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>22173.77288221</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>22263.78188220999</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>22952.76297666999</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>22591.08667666999</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>22844.83707667</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>22932.17977667</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>22803.37617667</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>22600.89987667</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>22420.94737667</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>22190.83437667</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>22407.25237667</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>22407.25237667</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>21423.96322317</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>21384.02742317</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>21403.69302317</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>21543.22382317</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>21455.39912317</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>21533.67863394</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>21609.67703394</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>21582.74893394</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>21554.31023394</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>21585.38773394</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>21430.89733394</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>21427.01643394</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>21443.38343394</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>21285.35073394</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>21437.20333394</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>21272.92283394</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>20955.36403394</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>20773.22583394</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>20782.98166727</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>20668.10295722</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>20447.90245722</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>20127.43955722</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>19745.11028043</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>20062.59498043</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>19999.96128043</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>20001.85383333001</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>19984.51263333001</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>20272.52174123001</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>20306.94181468001</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>20259.66021468001</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>20311.09771468001</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>20361.84201468001</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>20361.84201468001</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>20375.72374123001</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>20470.55662553001</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>20470.95822553001</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>20453.00092553001</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>20462.40542553001</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>20478.32582553001</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>20559.65802553001</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>20643.99312430001</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>20493.55512430002</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>20552.81552430001</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>20587.08152430001</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>20502.39960526002</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>20535.63799652002</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>20564.64628622002</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>20467.05338622002</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>20387.84978622002</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>20387.84978622002</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>20394.63978622002</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>20287.03338622002</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>20312.11198622002</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>20312.11198622002</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>20240.75198622002</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>20308.53068622002</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>20301.36338622001</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>20269.20888622001</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>20297.15848622001</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>20285.03138622001</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>20383.06828622001</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>20262.95278622001</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>20262.95278622001</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>20219.97758622001</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>20219.97758622001</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>20225.70348622001</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>20225.70348622001</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>20271.78978622001</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>20327.80098622001</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>20354.89408622001</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>20252.80768622001</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>20312.47233246001</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>20332.87233246001</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>20311.89093246001</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>20312.96327456001</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>20312.96327456001</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>20302.38757456001</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20310.88037456001</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20391.97597456001</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>20481.83237456001</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>20481.83237456001</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>20434.80937456001</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>20435.37187456001</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>20409.58622988001</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>20286.86258065001</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>20309.79518065001</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>20310.24898065001</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>20190.06238065001</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>20285.88548065001</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>20291.36438065001</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>20412.27728065001</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>20322.10348065001</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>20295.61928065001</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>20304.98178065001</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>20294.98178065001</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>20214.80778065001</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>20214.82778065001</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>20214.43758065001</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>20151.64088065001</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>20152.12228065001</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>20177.07098065001</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>20179.26788104001</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>20135.54688104001</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>20135.54688104001</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>20126.23758104001</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>20126.23758104001</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>20161.53778104001</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>20188.96448104001</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>20165.58598236001</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>20189.10094159001</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>20082.84784159001</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>20106.86594159001</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>19949.70584159001</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>20157.53875732001</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>20173.22038888001</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>20173.22038888001</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>20122.89348888001</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>20190.50772894001</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>20150.51632894001</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>20155.21992736001</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>20130.12188611001</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>20068.35338611001</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>20177.18338611001</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>20245.98920638001</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>20120.40100638002</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>20174.82190638002</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>20255.61050638002</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>20740.80650828002</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>20659.90891924002</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>20436.01210828002</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>20410.42750828002</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>20326.58260828002</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>20334.08410828002</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>20294.77570828002</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>20291.53120828002</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>20425.81868012002</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>20424.93718012002</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>20447.17496958002</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>20447.17496958002</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>20436.65686958002</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>20568.67988586002</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>20567.80693881002</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>20556.84043881002</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>20556.84043881002</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>20548.50473881002</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>20548.50473881002</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>20562.21503881002</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>20560.71503881002</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>20549.96103881002</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>20581.23493881002</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>20611.63893881001</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>20609.02634090001</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>20609.02634090001</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>20636.89624090002</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>20713.84974090002</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>20691.46664090002</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>20691.46664090002</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>20727.69104090002</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>20689.36164090002</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>20615.57004090002</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20616.55554090002</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20287.84824090002</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>20412.85344090002</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>20482.70254090002</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>20631.21244090002</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>20608.35234090002</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>20581.67374090002</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>20201.19304090002</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>20356.03294090002</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>20220.88644090002</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>20318.34834090001</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>20318.34834090001</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>19937.98324090002</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>20094.10164090001</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>20032.23574090001</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>19990.21318246001</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>20109.31428246001</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>20116.39508246001</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>20154.57418246002</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>20257.44548246001</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>20379.58778246001</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>20165.44528246001</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>20233.87348246001</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>20207.90156942001</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>20203.52026942001</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>20183.01736942001</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>20103.44626942001</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>20103.44626942001</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>20138.67146942001</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>20166.58526942001</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>20166.58526942001</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>20143.00796942001</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>20043.37716942001</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>19691.89806942001</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>19801.44807170001</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>19744.72727170001</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>19709.47487170001</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>19709.47487170001</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>19683.82717170001</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>19683.82717170001</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>19685.28427170001</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>19603.26657170001</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>19410.17057064001</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>19473.61686958001</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>19473.99187407001</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>19574.62077988001</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>19654.12290095001</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>19630.52660095001</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>19621.77962784001</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>19626.62422784001</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>19626.62422784001</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>19625.17512784001</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>19686.24712784001</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>19686.24712784001</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>19821.82182784001</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>19949.37574317001</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>19949.37574317001</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>19904.59394317001</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>19904.37404317001</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>19903.31154317001</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>19882.19704317001</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>19892.08474317001</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>19895.06044317001</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>19831.21714317001</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>19853.13896925001</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>19895.28716925001</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>19895.28716925001</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>19818.83026925001</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>19710.64396925001</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>19710.64396925001</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>19556.36886925001</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>19208.86316925001</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>19089.50266925001</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>19089.50266925001</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>19140.75776925001</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>19132.03046925001</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>19245.94834710001</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>19245.94834710001</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>19245.97514710001</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>19290.84964710001</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>19282.02704710001</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>19307.50754710001</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>19315.86534710001</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>19335.15834710001</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>19401.85134885001</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>19385.16834877001</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>19384.61224877001</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>19384.61224877001</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>19392.13864877001</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>19389.64464877001</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>19390.15114877001</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>19385.80854877001</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>19373.73094877001</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>19345.59394877001</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>19345.59614877001</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>19332.06074877001</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>19332.12074877001</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>19404.18964877001</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>19392.88344877001</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>19422.40233145001</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>19405.48091413001</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>19695.02361303001</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>19695.16161303001</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>19695.16161303001</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>19913.86674534001</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>19943.46016556001</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>19881.38396556001</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>19847.01446556001</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>19852.58896556001</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>19848.73546625001</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>19747.15056625001</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>19671.85656625</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>19787.84076625</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>19648.55526647</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>19723.30876647</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>19726.42036647</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>19753.61461154</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>19720.25671154001</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>19769.37711154</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>19761.45801154001</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>19770.52321154001</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>19886.47601154001</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>19888.68991154</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>19920.93981154</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>20062.22836647</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>20139.68076647</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>20325.88266647</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>20239.71386647</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>20445.10516647</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>20419.12876647</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>20331.82996647</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>20344.00576647</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>20579.64076647</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>20837.97826647</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>21415.23916647</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>22045.19585305001</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>21526.25602269001</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>20518.46642269001</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>20354.15390482001</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>20186.41994250001</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>20186.41994250001</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>20004.04646680001</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>19851.70326745001</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>20033.41968827001</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>20154.27548742001</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>20353.27226033001</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>20272.37169417001</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>20616.22477630001</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>20803.47174180001</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>20696.33793996001</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>20696.33793996001</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>20927.85403996001</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>21680.08261121001</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>22032.17513071001</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>22422.76693596001</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>23127.31672823001</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>22511.76059615001</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>22034.51819482001</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>22427.33639482001</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>22652.20509278001</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>23239.90104689001</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>22874.21214069001</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>23169.31229141001</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>23618.85693342001</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>23321.90223018001</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>23507.80413018001</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>24124.27077461001</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>24124.27077461001</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>23859.99607461001</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>23569.78331118001</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>22983.58178903001</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>23696.98025265001</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>23460.94861495001</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>23814.63440897001</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>23603.85540897001</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>23603.85540897001</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>23517.88780897001</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>24212.97266944001</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>24871.19612620001</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>34577.87979676</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>33676.07781093</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>33049.2213953</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>32351.32075646</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>31855.47337926</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>33172.16174594</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>32142.23319677</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>32630.79519692</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>32210.92698036</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>32017.84688036</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>31367.96645602</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>30654.3860368</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>30409.0367368</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>29834.0015368</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>30773.35504501</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>31356.99897497</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>31003.99819901</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>30234.88075466999</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>30995.53169341999</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>30464.48221518</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>29591.24811829999</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>29089.09011720999</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>28201.65041721</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>28686.79939191999</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>29229.44059626</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>30491.12914204</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>31358.59154262</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>31048.7580069</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>30837.36520689999</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>30930.63483840999</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>31073.9141069</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>31131.3219069</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>31011.14219867</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>31000.07836246999</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>31271.17011915999</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>31560.87231915999</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>32037.09101915999</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>31661.84089402</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>31440.37099327</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>31561.2758569</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>30204.2743721</v>
       </c>
       <c r="H1230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>30460.3124721</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>30612.51075426</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>30217.37185426</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>29796.68275426</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>29267.93865426</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BSV ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>3101.24954466</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3864.43404466</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>15078.46918959</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>16206.92094449</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>16206.92094449</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>16660.49744449</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>17793.89651763</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>15729.3472194</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>14703.10929136</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>13598.07669136</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>13126.81169136</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>13381.40339136001</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>13879.90438959</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>14525.86188537</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>13487.92827428</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>14138.37045139</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>13998.02025139</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13829.07105139</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>13553.41005139</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>14817.09527912001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>13932.53172935</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>14148.83837905</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>13817.36559516</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>13561.38909401</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>13120.56722048</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>13809.54282048</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>14137.24252048</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>13961.01492048</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>13747.94022048</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>13359.02382048</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>13704.66892048</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>13854.16782048</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>14374.72522048</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>14840.26017161</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>14412.37704201</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>14490.02284109</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>14429.73224639</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>14585.11842675</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>14432.68707946</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>14213.99527946</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>14725.78864364</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>14429.71674364</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>14312.88764364</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>14545.68994364</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>14545.68994364</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>14268.7750832</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>13967.7332832</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>14129.7335832</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>15770.82820229</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>15603.18730229</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>15804.73864897</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>15789.30344897</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>16105.18905568</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>16070.78345568</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>18258.27210965</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>18637.71287149</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>18161.96443999</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>18136.05013998999</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>18440.84303999</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>18575.73213999</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>18559.79063998999</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>18618.35443921999</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>18971.57343999</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>19527.24366329</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>19736.82736328999</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>19553.41786328999</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>19659.04406328999</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>20401.85736516999</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>21511.86713620999</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>21220.76621437999</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>20936.01732821999</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>20936.01732821999</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>20998.03984038999</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>21796.03494686999</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>22188.17114231999</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>21788.10894231999</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>21475.90504231999</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>21475.90504231999</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>21231.75724231999</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>21503.47371398999</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>21576.16951398999</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>21481.17872276999</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>21396.56822276999</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>21325.41048870999</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>20930.93848870999</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>20930.93848870999</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>20802.85574142999</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>20659.44064142999</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>20855.63694142999</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>20946.41994142999</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>20955.92654142999</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>21030.56894142999</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>21030.56894142999</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>21184.31603313999</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>21311.84679299999</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>21379.73319299999</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>21379.73319299999</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>21472.12139299999</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>21540.47609211999</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>21540.47609211999</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>21491.82269211999</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>21453.42748228999</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>21453.42748228999</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>21383.61188228999</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>21468.46758228999</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>21468.46758228999</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>21361.69586918999</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>21368.69217111999</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>21749.18853928999</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>21951.81653928999</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>21870.15363928999</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>22112.56883928999</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>21994.01046000999</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>21908.55066000999</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>21770.40306000999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>21748.61825979999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>21857.84465979999</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>21808.16672429999</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>21798.07322429999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>21895.21121208999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>21995.04231208999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>21918.98521208999</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>22116.77792334999</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>22155.36822398999</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>22311.49872126</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>22527.22221209</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>22178.74779073</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>22125.26199073</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>22186.16052161</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>22285.83017236</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>22285.83017236</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>22068.1492715</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>21905.8460715</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>21605.2651715</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>21664.68227322</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>21725.62697041</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>21796.72555003</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>21929.49529898</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>21977.37996726</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>21977.37996726</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>21698.10922386</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>21883.16674643</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>21959.5004982</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>22107.95390127999</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>22107.95390127999</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>22261.61706718</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>22116.66431802</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>22190.55471802</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>22190.55471802</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>22306.17531802</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>22173.77288221</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>22263.78188220999</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>22952.76297666999</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>22591.08667666999</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>22844.83707667</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>22932.17977667</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>22803.37617667</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>22600.89987667</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>22420.94737667</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>22190.83437667</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>22407.25237667</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>22407.25237667</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>21423.96322317</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>21384.02742317</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>21403.69302317</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>21543.22382317</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>21455.39912317</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>21533.67863394</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>21609.67703394</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>21582.74893394</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>21554.31023394</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>21585.38773394</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>21430.89733394</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>21427.01643394</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>21443.38343394</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>21285.35073394</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>21437.20333394</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>21380.67173394</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>21272.92283394</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>20955.36403394</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>20773.22583394</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>20782.98166727</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>20668.10295722</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>20447.90245722</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>20127.43955722</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>19745.11028043</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>20062.59498043</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>19999.96128043</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>20001.85383333001</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>19984.51263333001</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>20272.52174123001</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>20306.94181468001</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>20259.66021468001</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>20311.09771468001</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>20361.84201468001</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>20361.84201468001</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>20375.72374123001</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>20489.95832676001</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>20470.55662553001</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>20470.95822553001</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>20453.00092553001</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>20462.40542553001</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>20478.32582553001</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>20559.65802553001</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>20643.99312430001</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>20493.55512430002</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>20552.81552430001</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>20587.08152430001</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>20502.39960526002</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>20535.63799652002</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>20564.64628622002</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>20467.05338622002</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>20387.84978622002</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>20387.84978622002</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>20394.63978622002</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>20287.03338622002</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>20312.11198622002</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>20312.11198622002</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>20240.75198622002</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>20308.53068622002</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>20301.36338622001</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>20269.20888622001</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>20297.15848622001</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>20285.03138622001</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>20383.06828622001</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>20262.95278622001</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>20262.95278622001</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>20219.97758622001</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>20219.97758622001</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>20225.70348622001</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>20225.70348622001</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>20271.78978622001</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>20327.80098622001</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>20354.89408622001</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>20367.35778622001</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>20252.80768622001</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>20312.47233246001</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>20332.87233246001</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>20311.89093246001</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>20312.96327456001</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>20312.96327456001</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>20302.38757456001</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20310.88037456001</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20391.97597456001</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>20481.83237456001</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>20481.83237456001</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>20434.80937456001</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>20435.37187456001</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>20409.58622988001</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>20286.86258065001</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>20309.79518065001</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>20310.24898065001</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>20190.06238065001</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>20285.88548065001</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>20291.36438065001</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>20412.27728065001</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>20322.10348065001</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>20295.61928065001</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>20304.98178065001</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>20294.98178065001</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>20214.80778065001</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>20214.82778065001</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>20214.43758065001</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>20151.64088065001</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>20152.12228065001</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>20177.07098065001</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>20179.26788104001</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>20135.54688104001</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>20135.54688104001</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>20126.23758104001</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>20126.23758104001</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>20161.53778104001</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>20188.96448104001</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>20193.94548104001</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>20165.58598236001</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>20189.10094159001</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>20082.84784159001</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>20106.86594159001</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>19949.70584159001</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>20157.53875732001</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>20173.22038888001</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>20173.22038888001</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>20122.89348888001</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>20190.50772894001</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>20150.51632894001</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>20155.21992736001</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>20130.12188611001</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>20151.22538611001</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>20068.35338611001</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>20177.18338611001</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>20245.98920638001</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>20120.40100638002</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>20174.82190638002</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>20255.61050638002</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>20740.80650828002</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>20659.90891924002</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>20436.01210828002</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>20410.42750828002</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>20326.58260828002</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>20334.08410828002</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>20294.77570828002</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>20291.53120828002</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>20425.81868012002</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>20424.93718012002</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>20447.17496958002</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>20447.17496958002</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>20436.65686958002</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>20568.67988586002</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>20567.80693881002</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>20556.84043881002</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>20556.84043881002</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>20548.50473881002</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>20548.50473881002</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>20562.21503881002</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>20560.71503881002</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>20549.96103881002</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>20581.23493881002</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>20611.63893881001</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>20609.02634090001</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>20609.02634090001</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>20636.89624090002</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>20713.84974090002</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>20691.46664090002</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>20691.46664090002</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>20727.69104090002</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>20689.36164090002</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>20615.57004090002</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>20616.55554090002</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>20287.84824090002</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>20412.85344090002</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>20482.70254090002</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>20631.21244090002</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>20608.35234090002</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>20581.67374090002</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>20201.19304090002</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>20356.03294090002</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>20220.88644090002</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>20318.34834090001</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>20318.34834090001</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>19937.98324090002</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>20094.10164090001</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>20032.23574090001</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>19990.21318246001</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>20109.31428246001</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>20116.39508246001</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>20154.57418246002</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>20257.44548246001</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>20379.58778246001</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>20165.44528246001</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>20233.87348246001</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>20207.90156942001</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>20203.52026942001</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>20183.01736942001</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>20155.70086942001</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>20103.44626942001</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>20103.44626942001</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>20138.67146942001</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>20166.58526942001</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>20166.58526942001</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>20143.00796942001</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>20043.37716942001</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>19691.89806942001</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>19801.44807170001</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>19744.72727170001</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>19709.47487170001</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>19709.47487170001</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>19683.82717170001</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>19683.82717170001</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>19685.28427170001</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>19603.26657170001</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>19410.17057064001</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>19473.61686958001</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>19473.99187407001</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>19574.62077988001</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>19654.12290095001</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>19630.52660095001</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>19621.77962784001</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>19626.62422784001</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>19626.62422784001</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>19625.17512784001</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>19686.24712784001</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>19686.24712784001</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>19821.82182784001</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>19949.37574317001</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>19949.37574317001</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>19935.48354317001</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>19904.59394317001</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>19904.37404317001</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>19903.31154317001</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>19882.19704317001</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>19892.08474317001</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>19895.06044317001</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>19831.21714317001</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>19853.13896925001</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>19859.78746925001</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>19895.28716925001</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>19895.28716925001</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>19818.83026925001</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>19710.64396925001</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>19710.64396925001</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>19599.27796925001</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>19556.36886925001</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>19208.86316925001</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>19089.50266925001</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>19089.50266925001</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>19140.75776925001</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>19132.03046925001</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>19245.94834710001</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>19245.94834710001</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>19245.97514710001</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>19290.84964710001</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>19282.02704710001</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>19307.50754710001</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>19315.86534710001</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>19335.15834710001</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>19401.85134885001</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>19385.16834877001</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>19384.61224877001</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>19384.61224877001</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>19392.13864877001</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>19389.64464877001</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>19390.15114877001</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>19385.80854877001</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>19373.73094877001</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>19345.59394877001</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>19345.59614877001</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>19332.06074877001</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>19332.12074877001</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>19404.18964877001</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>19392.88344877001</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>19422.40233145001</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>19405.48091413001</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>19695.02361303001</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>19695.16161303001</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>19695.16161303001</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>19798.85334534001</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>19913.86674534001</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>19943.46016556001</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>19881.38396556001</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>19847.01446556001</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>19852.58896556001</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>19845.46866556001</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>19848.73546625001</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>19747.15056625001</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>19671.85656625</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>19787.84076625</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>19648.55526647</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>19723.30876647</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>19726.42036647</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>19753.61461154</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>19720.25671154001</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>19769.37711154</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>19761.45801154001</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>19770.52321154001</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>19886.47601154001</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>19888.68991154</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>19874.80311154</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>19920.93981154</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>20062.22836647</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>20139.68076647</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>20325.88266647</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>20239.71386647</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>20445.10516647</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>20419.12876647</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>20331.82996647</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>20336.19346647</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>20344.00576647</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>20579.64076647</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>20837.97826647</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>21415.23916647</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>22045.19585305001</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>21526.25602269001</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>20518.46642269001</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>20354.15390482001</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>20186.41994250001</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>20186.41994250001</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>20004.04646680001</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>19851.70326745001</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>20033.41968827001</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>20154.27548742001</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>20353.27226033001</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>20272.37169417001</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>20616.22477630001</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>20803.47174180001</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>20696.33793996001</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>20696.33793996001</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>20927.85403996001</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>21680.08261121001</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>22032.17513071001</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>22422.76693596001</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>23127.31672823001</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>22511.76059615001</v>
       </c>
       <c r="H1117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>22034.51819482001</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>22427.33639482001</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>22652.20509278001</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>23239.90104689001</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>22874.21214069001</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>23169.31229141001</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>23618.85693342001</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>23321.90223018001</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>23507.80413018001</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>24124.27077461001</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>24124.27077461001</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>23859.99607461001</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>23569.78331118001</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>22983.58178903001</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>23696.98025265001</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>23460.94861495001</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>23814.63440897001</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>23603.85540897001</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>23603.85540897001</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>23517.88780897001</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>24212.97266944001</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>24871.19612620001</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>30580.95742537</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>32238.40071914001</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>32830.53830578001</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>34577.87979676</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>33676.07781093</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>33049.2213953</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>32351.32075646</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>31855.47337926</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>33172.16174594</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>32142.23319677</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>32630.79519692</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>32210.92698036</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>32017.84688036</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>31367.96645602</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>30654.3860368</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>30409.0367368</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>29834.0015368</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>30773.35504501</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>31356.99897497</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>31003.99819901</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>30234.88075466999</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>30995.53169341999</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>30464.48221518</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>29591.24811829999</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>29089.09011720999</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>28201.65041721</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>28686.79939191999</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>29229.44059626</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>30211.70151165</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>30491.12914204</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>31358.59154262</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>31048.7580069</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>30837.36520689999</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>30930.63483840999</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>31073.9141069</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>31131.3219069</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>31011.14219867</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>30808.12596247</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>31000.07836246999</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>31271.17011915999</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>31560.87231915999</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>32037.09101915999</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>31661.84089402</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>31440.37099327</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>31561.2758569</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>31768.29149425</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>31543.98023009999</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>31722.60512934999</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>31346.54983973999</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>31679.77494918</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>31241.29604922</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>31032.83596981</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>30521.88686980999</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>30765.85136865999</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>31156.18146865999</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
